--- a/RUDN/Importance/Varible_reg_in_Melanesia.xlsx
+++ b/RUDN/Importance/Varible_reg_in_Melanesia.xlsx
@@ -14,330 +14,336 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
   </si>
   <si>
+    <t>Tuberculosis treatment success rate (% of new cases)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio (% of working-age population)</t>
+  </si>
+  <si>
+    <t>Inflation, consumer prices (annual %)</t>
+  </si>
+  <si>
+    <t>GDP per person employed (constant 2011 PPP $)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kt)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, old</t>
+  </si>
+  <si>
     <t>CO2 emissions (kg per PPP $ of GDP)</t>
   </si>
   <si>
-    <t>Age dependency ratio, old</t>
+    <t>Years</t>
+  </si>
+  <si>
+    <t>Age population, age 20, female, interpolated</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Number of maternal deaths</t>
+  </si>
+  <si>
+    <t>Age population, age 24, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, male (% of male population)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (metric tons per capita)</t>
+  </si>
+  <si>
+    <t>Death rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 0, female, interpolated</t>
+  </si>
+  <si>
+    <t>Net ODA received per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 13, female, interpolated</t>
   </si>
   <si>
     <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
   </si>
   <si>
-    <t>Years</t>
-  </si>
-  <si>
-    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
-  </si>
-  <si>
-    <t>Death rate, crude (per 1,000 people)</t>
+    <t>Age population, age 25, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 10-14, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Female population 25-29</t>
+  </si>
+  <si>
+    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
+  </si>
+  <si>
+    <t>Trade (% of GDP)</t>
+  </si>
+  <si>
+    <t>Age population, age 16, female, interpolated</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>GDP per capita (Current US$)</t>
+  </si>
+  <si>
+    <t>Age population, age 0, male, interpolated</t>
+  </si>
+  <si>
+    <t>GDP growth (annual %)</t>
+  </si>
+  <si>
+    <t>Improved water source, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Fertility rate, total (births per woman)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% gross)</t>
+  </si>
+  <si>
+    <t>Age population, age 02, male, interpolated</t>
+  </si>
+  <si>
+    <t>Net official development assistance and official aid received (current US$)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Immunization, BCG (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities (% of population with access)</t>
+  </si>
+  <si>
+    <t>Female population 20-24</t>
+  </si>
+  <si>
+    <t>Female population 35-39</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of government expenditure)</t>
+  </si>
+  <si>
+    <t>Female population 55-59</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of GDP)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP</t>
+  </si>
+  <si>
+    <t>Female population 30-34</t>
+  </si>
+  <si>
+    <t>Forest area (sq. km)</t>
+  </si>
+  <si>
+    <t>Fixed telephone subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Female population 70-74</t>
+  </si>
+  <si>
+    <t>Internet users (per 100 people)</t>
+  </si>
+  <si>
+    <t>Mobile cellular subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Sex ratio at birth (male births per female births)</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 80 and older, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Population, female (% of total)</t>
+  </si>
+  <si>
+    <t>Population, male (% of total)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% gross)</t>
   </si>
   <si>
     <t>Survival to age 65, female (% of cohort)</t>
   </si>
   <si>
-    <t>Inflation, consumer prices (annual %)</t>
-  </si>
-  <si>
-    <t>Rural population growth (annual %)</t>
+    <t>Labor force, female</t>
+  </si>
+  <si>
+    <t>Time required to start a business, female (days)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (%, all forms)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Urban population growth (annual %)</t>
   </si>
   <si>
     <t>Population ages 60-64, male (% of male population)</t>
   </si>
   <si>
-    <t>Health expenditure, public (% of government expenditure)</t>
-  </si>
-  <si>
-    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
+    <t>Population ages 50-54, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, male (% of male population)</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, GDP (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Number of infant deaths</t>
+  </si>
+  <si>
+    <t>Male population 80+</t>
+  </si>
+  <si>
+    <t>Male population 70-74</t>
+  </si>
+  <si>
+    <t>Access to anti-retroviral drugs, female (%)</t>
+  </si>
+  <si>
+    <t>Male population 15-19</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
+  </si>
+  <si>
+    <t>Labor force, total</t>
+  </si>
+  <si>
+    <t>External resources for health (% of total expenditure on health)</t>
   </si>
   <si>
     <t>AIDS estimated deaths (UNAIDS estimates)</t>
   </si>
   <si>
-    <t>Age dependency ratio (% of working-age population)</t>
-  </si>
-  <si>
-    <t>Age population, age 0, female, interpolated</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita (current US$)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of GDP)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, female (% of female population)</t>
+    <t>Age population, age 10, male, interpolated</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Age population, age 14, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 14, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 11, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 21, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 15, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 15, male, interpolated</t>
   </si>
   <si>
     <t>Age dependency ratio, young</t>
   </si>
   <si>
-    <t>Age population, age 20, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 13, female, interpolated</t>
+    <t>Age population, age 16, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 22, male, interpolated</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, female</t>
+  </si>
+  <si>
+    <t>Age population, age 19, female, interpolated</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) living with HIV</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Age population, age 09, male, interpolated</t>
+  </si>
+  <si>
+    <t>Access to anti-retroviral drugs, male (%)</t>
   </si>
   <si>
     <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
   </si>
   <si>
-    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Age population, age 19, female, interpolated</t>
-  </si>
-  <si>
-    <t>GDP per person employed (constant 2011 PPP $)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (metric tons per capita)</t>
-  </si>
-  <si>
-    <t>Immunization, BCG (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of GDP)</t>
-  </si>
-  <si>
-    <t>Age population, age 16, female, interpolated</t>
-  </si>
-  <si>
-    <t>Labor force, total</t>
-  </si>
-  <si>
-    <t>Number of maternal deaths</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population, female (% of total)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Urban population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Age population, age 17, male, interpolated</t>
-  </si>
-  <si>
-    <t>Mobile cellular subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Age population, age 14, female, interpolated</t>
+    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
   </si>
   <si>
     <t>Age population, age 13, male, interpolated</t>
   </si>
   <si>
-    <t>Adults (ages 15+) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Age population, age 03, female, interpolated</t>
-  </si>
-  <si>
-    <t>Immunization, DPT (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Net official development assistance and official aid received (current US$)</t>
-  </si>
-  <si>
-    <t>Female population 00-04</t>
-  </si>
-  <si>
-    <t>External resources for health (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Female population 40-44</t>
-  </si>
-  <si>
-    <t>Number of infant deaths</t>
-  </si>
-  <si>
-    <t>Age population, age 06, female, interpolated</t>
-  </si>
-  <si>
-    <t>Sex ratio at birth (male births per female births)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Number of neonatal deaths</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 75-79, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Male population 25-29</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Female population 75-79</t>
-  </si>
-  <si>
-    <t>Female population 80+</t>
-  </si>
-  <si>
-    <t>Male population 65-69</t>
-  </si>
-  <si>
-    <t>Forest area (sq. km)</t>
-  </si>
-  <si>
-    <t>GDP growth (annual %)</t>
-  </si>
-  <si>
-    <t>GDP per capita (Current US$)</t>
-  </si>
-  <si>
-    <t>Access to anti-retroviral drugs, female (%)</t>
-  </si>
-  <si>
-    <t>Proportion of women in ministerial level positions (%)</t>
-  </si>
-  <si>
-    <t>Age population, age 02, female, interpolated</t>
-  </si>
-  <si>
-    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 75-79, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Government expenditure on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Age population, age 25, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 16, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 01, female, interpolated</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
-  </si>
-  <si>
-    <t>Incidence of tuberculosis (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Age population, age 20, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 10-14, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Age population, age 21, male, interpolated</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>Improved water source, urban (% of urban population with access)</t>
-  </si>
-  <si>
-    <t>Access to anti-retroviral drugs, male (%)</t>
-  </si>
-  <si>
-    <t>Improved water source, rural (% of rural population with access)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force)</t>
-  </si>
-  <si>
-    <t>Time required to start a business, female (days)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among children (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Birth rate, crude (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Trade (% of GDP)</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities (% of population with access)</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, female</t>
-  </si>
-  <si>
-    <t>Survival to age 65, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Age population, age 11, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 80 and older, female (% of female population)</t>
+    <t>Age population, age 18, male, interpolated</t>
   </si>
 </sst>
 </file>
@@ -695,7 +701,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B109"/>
+  <dimension ref="A1:B111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -711,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.09411764889955521</v>
+        <v>0.0572916679084301</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -719,7 +725,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.04313725605607033</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -727,7 +733,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.03921568766236305</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -735,7 +741,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0313725508749485</v>
+        <v>0.02604166604578495</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -743,7 +749,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.02745098061859608</v>
+        <v>0.02604166604578495</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -751,7 +757,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.02745098061859608</v>
+        <v>0.02604166604578495</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -759,7 +765,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.02745098061859608</v>
+        <v>0.02083333395421505</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -767,7 +773,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0235294122248888</v>
+        <v>0.02083333395421505</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -775,7 +781,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.0235294122248888</v>
+        <v>0.02083333395421505</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -783,7 +789,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.01960784383118153</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -791,7 +797,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.01960784383118153</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -799,7 +805,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.01960784383118153</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -807,7 +813,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.01960784383118153</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -815,7 +821,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.01960784383118153</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -823,7 +829,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.01960784383118153</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -831,7 +837,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.01568627543747425</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -839,7 +845,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.01568627543747425</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -847,7 +853,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.01568627543747425</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -855,7 +861,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.0117647061124444</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -863,7 +869,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.0117647061124444</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -871,7 +877,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.0117647061124444</v>
+        <v>0.01041666697710752</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -879,7 +885,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.0117647061124444</v>
+        <v>0.01041666697710752</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -887,7 +893,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.0117647061124444</v>
+        <v>0.01041666697710752</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -895,7 +901,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.0117647061124444</v>
+        <v>0.01041666697710752</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -903,7 +909,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.0117647061124444</v>
+        <v>0.01041666697710752</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -911,7 +917,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.0117647061124444</v>
+        <v>0.01041666697710752</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -919,7 +925,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.0117647061124444</v>
+        <v>0.01041666697710752</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -927,7 +933,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.007843137718737125</v>
+        <v>0.01041666697710752</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -935,7 +941,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.007843137718737125</v>
+        <v>0.01041666697710752</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -943,7 +949,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.007843137718737125</v>
+        <v>0.01041666697710752</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -951,7 +957,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.007843137718737125</v>
+        <v>0.01041666697710752</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -959,7 +965,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.007843137718737125</v>
+        <v>0.01041666697710752</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -967,7 +973,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.007843137718737125</v>
+        <v>0.01041666697710752</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -975,7 +981,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.007843137718737125</v>
+        <v>0.01041666697710752</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -983,7 +989,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.007843137718737125</v>
+        <v>0.01041666697710752</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -991,7 +997,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.007843137718737125</v>
+        <v>0.01041666697710752</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -999,7 +1005,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.007843137718737125</v>
+        <v>0.01041666697710752</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1007,7 +1013,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.007843137718737125</v>
+        <v>0.01041666697710752</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1015,7 +1021,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.007843137718737125</v>
+        <v>0.01041666697710752</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1023,7 +1029,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.007843137718737125</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1031,7 +1037,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.007843137718737125</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1039,7 +1045,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.007843137718737125</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1047,7 +1053,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.007843137718737125</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1055,7 +1061,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.007843137718737125</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1063,7 +1069,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.007843137718737125</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1071,7 +1077,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.007843137718737125</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1079,7 +1085,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.003921568859368563</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1087,7 +1093,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.003921568859368563</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1095,7 +1101,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.003921568859368563</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1103,7 +1109,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.003921568859368563</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1111,7 +1117,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.003921568859368563</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1119,7 +1125,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.003921568859368563</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1127,7 +1133,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.003921568859368563</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1135,7 +1141,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.003921568859368563</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1143,7 +1149,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.003921568859368563</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1151,7 +1157,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.003921568859368563</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1159,7 +1165,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.003921568859368563</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1167,7 +1173,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.003921568859368563</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1175,7 +1181,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.003921568859368563</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1183,7 +1189,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.003921568859368563</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1191,7 +1197,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.003921568859368563</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1199,7 +1205,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.003921568859368563</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1207,7 +1213,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.003921568859368563</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1215,7 +1221,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.003921568859368563</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1223,7 +1229,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.003921568859368563</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1231,7 +1237,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.003921568859368563</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1239,7 +1245,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.003921568859368563</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1247,7 +1253,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.003921568859368563</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1255,7 +1261,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.003921568859368563</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1263,7 +1269,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.003921568859368563</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1271,7 +1277,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.003921568859368563</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1279,7 +1285,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.003921568859368563</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1287,7 +1293,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.003921568859368563</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1295,7 +1301,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.003921568859368563</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1303,7 +1309,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.003921568859368563</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1311,7 +1317,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.003921568859368563</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1319,7 +1325,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.003921568859368563</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1327,7 +1333,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.003921568859368563</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1335,7 +1341,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.003921568859368563</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1343,7 +1349,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.003921568859368563</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1351,7 +1357,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.003921568859368563</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1359,7 +1365,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.003921568859368563</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1367,7 +1373,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.003921568859368563</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1375,7 +1381,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.003921568859368563</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1383,7 +1389,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.003921568859368563</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1391,7 +1397,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.003921568859368563</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1399,7 +1405,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.003921568859368563</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1407,7 +1413,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.003921568859368563</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1415,7 +1421,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.003921568859368563</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1423,7 +1429,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.003921568859368563</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1431,7 +1437,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.003921568859368563</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1439,7 +1445,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.003921568859368563</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1447,7 +1453,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.003921568859368563</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1455,7 +1461,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.003921568859368563</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1463,7 +1469,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.003921568859368563</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1471,7 +1477,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.003921568859368563</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1479,7 +1485,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.003921568859368563</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1487,7 +1493,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.003921568859368563</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1495,7 +1501,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.003921568859368563</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1503,7 +1509,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.003921568859368563</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1511,7 +1517,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.003921568859368563</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1519,7 +1525,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.003921568859368563</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1527,7 +1533,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.003921568859368563</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1535,7 +1541,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.003921568859368563</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1543,7 +1549,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.003921568859368563</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1551,7 +1557,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.003921568859368563</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1559,7 +1565,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.003921568859368563</v>
+        <v>0.005208333488553762</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1567,7 +1573,23 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.003921568859368563</v>
+        <v>0.005208333488553762</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>0.005208333488553762</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>0.005208333488553762</v>
       </c>
     </row>
   </sheetData>
